--- a/va_facility_data_2025-02-20/Sheridan VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Sheridan%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sheridan VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Sheridan%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rf909cea5c22b4685877c2bf6f0775ab4"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rce0a2615703749a1ad752817744973a0"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R42d0f4f7e5304fd4969eead9a7d7c964"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R4277ffcf70bc4b1db1e5a0131c5f1743"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rbf71ab31e86a479f9689d7274fb38c3f"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rb63dfe611d644f34978236a071274543"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R0fca85011c324ea8a5ba74233396a68f"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rfc0665dda1dd4bcb9d93f96c3e047f77"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R15f4b906ef1b47d7b4c1f25b2f61ae3d"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rc0ef03a6376d4442b2d3d2cfea033fba"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R773a86dc28c14d77a03decb8ef24b5d8"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Re6dce1ea1164440483a96b021d8cb7c3"/>
   </x:sheets>
 </x:workbook>
 </file>
